--- a/official/L1Menu_Collisions2024_v1_2_0/PrescaleTable/L1Menu_Collisions2024_v1_2_0.xlsx
+++ b/official/L1Menu_Collisions2024_v1_2_0/PrescaleTable/L1Menu_Collisions2024_v1_2_0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/L1MenuRun3-master_17May/official/L1Menu_Collisions2024_v1_2_0/PrescaleTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4191E88-6E6D-9641-840E-3B909CBACA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA9FB8D-7AAE-0549-B240-1189F2C10738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11740" yWindow="-19160" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
   <si>
     <t>Index</t>
   </si>
@@ -1265,6 +1265,9 @@
   </si>
   <si>
     <t>1p4E34</t>
+  </si>
+  <si>
+    <t>1p8E34+ZeroBias+HLTPhysics</t>
   </si>
 </sst>
 </file>
@@ -1656,27 +1659,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T396"/>
+  <dimension ref="A1:U396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="E340" sqref="E340"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="60.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="8" width="14" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="9" width="14" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="16" max="16" width="7.83203125" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" customWidth="1"/>
+    <col min="21" max="21" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1686,59 +1689,62 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1799,8 +1805,11 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1861,8 +1870,11 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1923,8 +1935,11 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1985,8 +2000,11 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2047,8 +2065,11 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2109,8 +2130,11 @@
       <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2171,8 +2195,11 @@
       <c r="T8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2233,8 +2260,11 @@
       <c r="T9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2295,8 +2325,11 @@
       <c r="T10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2357,8 +2390,11 @@
       <c r="T11" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2419,8 +2455,11 @@
       <c r="T12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2481,8 +2520,11 @@
       <c r="T13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2543,8 +2585,11 @@
       <c r="T14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2605,8 +2650,11 @@
       <c r="T15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2667,8 +2715,11 @@
       <c r="T16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2729,8 +2780,11 @@
       <c r="T17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2791,8 +2845,11 @@
       <c r="T18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2853,8 +2910,11 @@
       <c r="T19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2915,8 +2975,11 @@
       <c r="T20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2977,8 +3040,11 @@
       <c r="T21">
         <v>22000</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3039,8 +3105,11 @@
       <c r="T22">
         <v>4400</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3101,8 +3170,11 @@
       <c r="T23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3163,8 +3235,11 @@
       <c r="T24">
         <v>2200</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3196,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1">
         <v>1</v>
@@ -3214,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1">
         <v>0</v>
@@ -3225,8 +3300,11 @@
       <c r="T25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3237,10 +3315,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -3287,8 +3365,11 @@
       <c r="T26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3349,8 +3430,11 @@
       <c r="T27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3411,8 +3495,11 @@
       <c r="T28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3473,8 +3560,11 @@
       <c r="T29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3535,8 +3625,11 @@
       <c r="T30">
         <v>325</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U30">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3597,8 +3690,11 @@
       <c r="T31">
         <v>210</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3659,8 +3755,11 @@
       <c r="T32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3721,8 +3820,11 @@
       <c r="T33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3783,8 +3885,11 @@
       <c r="T34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3845,8 +3950,11 @@
       <c r="T35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3907,8 +4015,11 @@
       <c r="T36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3969,8 +4080,11 @@
       <c r="T37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4031,8 +4145,11 @@
       <c r="T38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4093,8 +4210,11 @@
       <c r="T39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4155,8 +4275,11 @@
       <c r="T40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4217,8 +4340,11 @@
       <c r="T41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4279,8 +4405,11 @@
       <c r="T42">
         <v>1500</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U42">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4341,8 +4470,11 @@
       <c r="T43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4403,8 +4535,11 @@
       <c r="T44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4465,8 +4600,11 @@
       <c r="T45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4527,8 +4665,11 @@
       <c r="T46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4589,8 +4730,11 @@
       <c r="T47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4651,8 +4795,11 @@
       <c r="T48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4713,8 +4860,11 @@
       <c r="T49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4775,8 +4925,11 @@
       <c r="T50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4837,8 +4990,11 @@
       <c r="T51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4899,8 +5055,11 @@
       <c r="T52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4961,8 +5120,11 @@
       <c r="T53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5023,8 +5185,11 @@
       <c r="T54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5085,8 +5250,11 @@
       <c r="T55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5147,8 +5315,11 @@
       <c r="T56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5209,8 +5380,11 @@
       <c r="T57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5271,8 +5445,11 @@
       <c r="T58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5328,13 +5505,16 @@
         <v>0</v>
       </c>
       <c r="S59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="T60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5457,8 +5640,11 @@
       <c r="T61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5519,8 +5705,11 @@
       <c r="T62">
         <v>190</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U62">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5581,8 +5770,11 @@
       <c r="T63">
         <v>190</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U63">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5643,8 +5835,11 @@
       <c r="T64">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5694,10 +5889,10 @@
         <v>100</v>
       </c>
       <c r="Q65">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R65">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S65">
         <v>100</v>
@@ -5705,8 +5900,11 @@
       <c r="T65">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5767,8 +5965,11 @@
       <c r="T66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5829,8 +6030,11 @@
       <c r="T67">
         <v>450</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U67">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5891,8 +6095,11 @@
       <c r="T68">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5924,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1">
         <v>1</v>
@@ -5942,10 +6149,10 @@
         <v>1</v>
       </c>
       <c r="Q69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="1">
         <v>0</v>
@@ -5953,8 +6160,11 @@
       <c r="T69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6015,8 +6225,11 @@
       <c r="T70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6077,8 +6290,11 @@
       <c r="T71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6139,8 +6355,11 @@
       <c r="T72">
         <v>1000</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6201,8 +6420,11 @@
       <c r="T73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6263,8 +6485,11 @@
       <c r="T74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6296,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1">
         <v>1</v>
@@ -6314,10 +6539,10 @@
         <v>1</v>
       </c>
       <c r="Q75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="1">
         <v>0</v>
@@ -6325,8 +6550,11 @@
       <c r="T75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6387,8 +6615,11 @@
       <c r="T76">
         <v>700</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U76">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6420,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1">
         <v>1</v>
@@ -6438,10 +6669,10 @@
         <v>1</v>
       </c>
       <c r="Q77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" s="1">
         <v>0</v>
@@ -6449,8 +6680,11 @@
       <c r="T77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6511,8 +6745,11 @@
       <c r="T78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6573,8 +6810,11 @@
       <c r="T79">
         <v>800</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U79">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6635,8 +6875,11 @@
       <c r="T80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6697,8 +6940,11 @@
       <c r="T81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6759,8 +7005,11 @@
       <c r="T82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6821,8 +7070,11 @@
       <c r="T83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6883,8 +7135,11 @@
       <c r="T84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6945,8 +7200,11 @@
       <c r="T85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7007,8 +7265,11 @@
       <c r="T86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7069,8 +7330,11 @@
       <c r="T87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7131,8 +7395,11 @@
       <c r="T88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7193,8 +7460,11 @@
       <c r="T89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7255,8 +7525,11 @@
       <c r="T90">
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7317,8 +7590,11 @@
       <c r="T91">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7379,8 +7655,11 @@
       <c r="T92">
         <v>35</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7441,8 +7720,11 @@
       <c r="T93">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U93">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7503,8 +7785,11 @@
       <c r="T94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7565,8 +7850,11 @@
       <c r="T95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7627,8 +7915,11 @@
       <c r="T96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7660,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="1">
         <v>1</v>
@@ -7678,10 +7969,10 @@
         <v>1</v>
       </c>
       <c r="Q97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S97" s="1">
         <v>0</v>
@@ -7689,8 +7980,11 @@
       <c r="T97" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7751,8 +8045,11 @@
       <c r="T98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7813,8 +8110,11 @@
       <c r="T99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7875,8 +8175,11 @@
       <c r="T100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7908,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" s="1">
         <v>1</v>
@@ -7926,10 +8229,10 @@
         <v>1</v>
       </c>
       <c r="Q101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101" s="1">
         <v>0</v>
@@ -7937,8 +8240,11 @@
       <c r="T101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7999,8 +8305,11 @@
       <c r="T102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -8061,8 +8370,11 @@
       <c r="T103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -8123,8 +8435,11 @@
       <c r="T104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -8185,8 +8500,11 @@
       <c r="T105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -8238,17 +8556,20 @@
       <c r="Q106">
         <v>1</v>
       </c>
-      <c r="R106" s="1">
-        <v>0</v>
+      <c r="R106">
+        <v>1</v>
       </c>
       <c r="S106">
         <v>1</v>
       </c>
-      <c r="T106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T106" s="1">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -8300,17 +8621,20 @@
       <c r="Q107">
         <v>1</v>
       </c>
-      <c r="R107" s="1">
-        <v>0</v>
+      <c r="R107">
+        <v>1</v>
       </c>
       <c r="S107">
         <v>1</v>
       </c>
-      <c r="T107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T107" s="1">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -8362,17 +8686,20 @@
       <c r="Q108">
         <v>1</v>
       </c>
-      <c r="R108" s="1">
-        <v>0</v>
+      <c r="R108">
+        <v>1</v>
       </c>
       <c r="S108">
         <v>1</v>
       </c>
-      <c r="T108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T108" s="1">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -8433,8 +8760,11 @@
       <c r="T109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -8483,20 +8813,23 @@
       <c r="P110">
         <v>1</v>
       </c>
-      <c r="Q110" s="1">
-        <v>0</v>
+      <c r="Q110">
+        <v>1</v>
       </c>
       <c r="R110">
         <v>1</v>
       </c>
-      <c r="S110">
-        <v>1</v>
+      <c r="S110" s="1">
+        <v>0</v>
       </c>
       <c r="T110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -8545,20 +8878,23 @@
       <c r="P111">
         <v>1</v>
       </c>
-      <c r="Q111" s="1">
-        <v>0</v>
+      <c r="Q111">
+        <v>1</v>
       </c>
       <c r="R111">
         <v>1</v>
       </c>
-      <c r="S111">
-        <v>1</v>
+      <c r="S111" s="1">
+        <v>0</v>
       </c>
       <c r="T111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -8607,20 +8943,23 @@
       <c r="P112">
         <v>1</v>
       </c>
-      <c r="Q112" s="1">
-        <v>0</v>
+      <c r="Q112">
+        <v>1</v>
       </c>
       <c r="R112">
         <v>1</v>
       </c>
-      <c r="S112">
-        <v>1</v>
+      <c r="S112" s="1">
+        <v>0</v>
       </c>
       <c r="T112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -8681,8 +9020,11 @@
       <c r="T113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -8731,20 +9073,23 @@
       <c r="P114">
         <v>1</v>
       </c>
-      <c r="Q114" s="1">
-        <v>0</v>
+      <c r="Q114">
+        <v>1</v>
       </c>
       <c r="R114">
         <v>1</v>
       </c>
-      <c r="S114">
-        <v>1</v>
+      <c r="S114" s="1">
+        <v>0</v>
       </c>
       <c r="T114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -8793,20 +9138,23 @@
       <c r="P115">
         <v>1</v>
       </c>
-      <c r="Q115" s="1">
-        <v>0</v>
+      <c r="Q115">
+        <v>1</v>
       </c>
       <c r="R115">
         <v>1</v>
       </c>
-      <c r="S115">
-        <v>1</v>
+      <c r="S115" s="1">
+        <v>0</v>
       </c>
       <c r="T115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -8867,8 +9215,11 @@
       <c r="T116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -8917,20 +9268,23 @@
       <c r="P117">
         <v>1</v>
       </c>
-      <c r="Q117" s="1">
-        <v>0</v>
+      <c r="Q117">
+        <v>1</v>
       </c>
       <c r="R117">
         <v>1</v>
       </c>
-      <c r="S117">
-        <v>1</v>
+      <c r="S117" s="1">
+        <v>0</v>
       </c>
       <c r="T117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -8979,20 +9333,23 @@
       <c r="P118">
         <v>1</v>
       </c>
-      <c r="Q118" s="1">
-        <v>0</v>
+      <c r="Q118">
+        <v>1</v>
       </c>
       <c r="R118">
         <v>1</v>
       </c>
-      <c r="S118">
-        <v>1</v>
+      <c r="S118" s="1">
+        <v>0</v>
       </c>
       <c r="T118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -9041,20 +9398,23 @@
       <c r="P119">
         <v>1</v>
       </c>
-      <c r="Q119" s="1">
-        <v>0</v>
+      <c r="Q119">
+        <v>1</v>
       </c>
       <c r="R119">
         <v>1</v>
       </c>
-      <c r="S119">
-        <v>1</v>
+      <c r="S119" s="1">
+        <v>0</v>
       </c>
       <c r="T119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9115,8 +9475,11 @@
       <c r="T120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9165,20 +9528,23 @@
       <c r="P121">
         <v>1</v>
       </c>
-      <c r="Q121" s="1">
-        <v>0</v>
+      <c r="Q121">
+        <v>1</v>
       </c>
       <c r="R121">
         <v>1</v>
       </c>
-      <c r="S121">
-        <v>1</v>
+      <c r="S121" s="1">
+        <v>0</v>
       </c>
       <c r="T121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>122</v>
       </c>
@@ -9227,20 +9593,23 @@
       <c r="P122">
         <v>1</v>
       </c>
-      <c r="Q122" s="1">
-        <v>0</v>
+      <c r="Q122">
+        <v>1</v>
       </c>
       <c r="R122">
         <v>1</v>
       </c>
-      <c r="S122">
-        <v>1</v>
+      <c r="S122" s="1">
+        <v>0</v>
       </c>
       <c r="T122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>123</v>
       </c>
@@ -9289,20 +9658,23 @@
       <c r="P123">
         <v>1</v>
       </c>
-      <c r="Q123" s="1">
-        <v>0</v>
+      <c r="Q123">
+        <v>1</v>
       </c>
       <c r="R123">
         <v>1</v>
       </c>
-      <c r="S123">
-        <v>1</v>
+      <c r="S123" s="1">
+        <v>0</v>
       </c>
       <c r="T123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>124</v>
       </c>
@@ -9351,20 +9723,23 @@
       <c r="P124">
         <v>11000</v>
       </c>
-      <c r="Q124" s="1">
-        <v>0</v>
+      <c r="Q124">
+        <v>11000</v>
       </c>
       <c r="R124">
         <v>11000</v>
       </c>
-      <c r="S124">
-        <v>11000</v>
+      <c r="S124" s="1">
+        <v>0</v>
       </c>
       <c r="T124">
         <v>11000</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U124">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>125</v>
       </c>
@@ -9413,20 +9788,23 @@
       <c r="P125">
         <v>400</v>
       </c>
-      <c r="Q125" s="1">
-        <v>0</v>
+      <c r="Q125">
+        <v>400</v>
       </c>
       <c r="R125">
         <v>400</v>
       </c>
-      <c r="S125">
-        <v>400</v>
+      <c r="S125" s="1">
+        <v>0</v>
       </c>
       <c r="T125">
         <v>400</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U125">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>126</v>
       </c>
@@ -9475,20 +9853,23 @@
       <c r="P126">
         <v>400</v>
       </c>
-      <c r="Q126" s="1">
-        <v>0</v>
+      <c r="Q126">
+        <v>400</v>
       </c>
       <c r="R126">
         <v>400</v>
       </c>
-      <c r="S126">
-        <v>400</v>
+      <c r="S126" s="1">
+        <v>0</v>
       </c>
       <c r="T126">
         <v>400</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U126">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>127</v>
       </c>
@@ -9537,20 +9918,23 @@
       <c r="P127">
         <v>256</v>
       </c>
-      <c r="Q127" s="1">
-        <v>0</v>
+      <c r="Q127">
+        <v>256</v>
       </c>
       <c r="R127">
         <v>256</v>
       </c>
-      <c r="S127">
-        <v>256</v>
+      <c r="S127" s="1">
+        <v>0</v>
       </c>
       <c r="T127">
         <v>256</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U127">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>128</v>
       </c>
@@ -9599,20 +9983,23 @@
       <c r="P128">
         <v>52</v>
       </c>
-      <c r="Q128" s="1">
-        <v>0</v>
+      <c r="Q128">
+        <v>52</v>
       </c>
       <c r="R128">
         <v>52</v>
       </c>
-      <c r="S128">
-        <v>52</v>
+      <c r="S128" s="1">
+        <v>0</v>
       </c>
       <c r="T128">
         <v>52</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U128">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>129</v>
       </c>
@@ -9661,20 +10048,23 @@
       <c r="P129">
         <v>52</v>
       </c>
-      <c r="Q129" s="1">
-        <v>0</v>
+      <c r="Q129">
+        <v>52</v>
       </c>
       <c r="R129">
         <v>52</v>
       </c>
-      <c r="S129">
-        <v>52</v>
+      <c r="S129" s="1">
+        <v>0</v>
       </c>
       <c r="T129">
         <v>52</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U129">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>130</v>
       </c>
@@ -9723,20 +10113,23 @@
       <c r="P130">
         <v>13</v>
       </c>
-      <c r="Q130" s="1">
-        <v>0</v>
+      <c r="Q130">
+        <v>13</v>
       </c>
       <c r="R130">
         <v>13</v>
       </c>
-      <c r="S130">
-        <v>13</v>
+      <c r="S130" s="1">
+        <v>0</v>
       </c>
       <c r="T130">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U130">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>131</v>
       </c>
@@ -9785,20 +10178,23 @@
       <c r="P131">
         <v>3</v>
       </c>
-      <c r="Q131" s="1">
-        <v>0</v>
+      <c r="Q131">
+        <v>3</v>
       </c>
       <c r="R131">
         <v>3</v>
       </c>
-      <c r="S131">
-        <v>3</v>
+      <c r="S131" s="1">
+        <v>0</v>
       </c>
       <c r="T131">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>132</v>
       </c>
@@ -9847,20 +10243,23 @@
       <c r="P132">
         <v>3</v>
       </c>
-      <c r="Q132" s="1">
-        <v>0</v>
+      <c r="Q132">
+        <v>3</v>
       </c>
       <c r="R132">
         <v>3</v>
       </c>
-      <c r="S132">
-        <v>3</v>
+      <c r="S132" s="1">
+        <v>0</v>
       </c>
       <c r="T132">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>133</v>
       </c>
@@ -9921,8 +10320,11 @@
       <c r="T133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>134</v>
       </c>
@@ -9971,20 +10373,23 @@
       <c r="P134">
         <v>1</v>
       </c>
-      <c r="Q134" s="1">
-        <v>0</v>
+      <c r="Q134">
+        <v>1</v>
       </c>
       <c r="R134">
         <v>1</v>
       </c>
-      <c r="S134">
-        <v>1</v>
+      <c r="S134" s="1">
+        <v>0</v>
       </c>
       <c r="T134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>135</v>
       </c>
@@ -10033,20 +10438,23 @@
       <c r="P135">
         <v>1</v>
       </c>
-      <c r="Q135" s="1">
-        <v>0</v>
+      <c r="Q135">
+        <v>1</v>
       </c>
       <c r="R135">
         <v>1</v>
       </c>
-      <c r="S135">
-        <v>1</v>
+      <c r="S135" s="1">
+        <v>0</v>
       </c>
       <c r="T135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>136</v>
       </c>
@@ -10095,20 +10503,23 @@
       <c r="P136">
         <v>1</v>
       </c>
-      <c r="Q136" s="1">
-        <v>0</v>
+      <c r="Q136">
+        <v>1</v>
       </c>
       <c r="R136">
         <v>1</v>
       </c>
-      <c r="S136">
-        <v>1</v>
+      <c r="S136" s="1">
+        <v>0</v>
       </c>
       <c r="T136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>137</v>
       </c>
@@ -10157,20 +10568,23 @@
       <c r="P137">
         <v>1</v>
       </c>
-      <c r="Q137" s="1">
-        <v>0</v>
+      <c r="Q137">
+        <v>1</v>
       </c>
       <c r="R137">
         <v>1</v>
       </c>
-      <c r="S137">
-        <v>1</v>
+      <c r="S137" s="1">
+        <v>0</v>
       </c>
       <c r="T137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>138</v>
       </c>
@@ -10220,19 +10634,22 @@
         <v>1</v>
       </c>
       <c r="Q138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R138" s="1">
         <v>1</v>
       </c>
       <c r="S138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>139</v>
       </c>
@@ -10282,19 +10699,22 @@
         <v>1</v>
       </c>
       <c r="Q139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R139" s="1">
         <v>1</v>
       </c>
       <c r="S139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>140</v>
       </c>
@@ -10355,8 +10775,11 @@
       <c r="T140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>141</v>
       </c>
@@ -10405,20 +10828,23 @@
       <c r="P141">
         <v>1</v>
       </c>
-      <c r="Q141" s="1">
-        <v>0</v>
+      <c r="Q141">
+        <v>1</v>
       </c>
       <c r="R141">
         <v>1</v>
       </c>
-      <c r="S141">
-        <v>1</v>
+      <c r="S141" s="1">
+        <v>0</v>
       </c>
       <c r="T141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>144</v>
       </c>
@@ -10467,20 +10893,23 @@
       <c r="P142">
         <v>1</v>
       </c>
-      <c r="Q142" s="1">
-        <v>0</v>
+      <c r="Q142">
+        <v>1</v>
       </c>
       <c r="R142">
         <v>1</v>
       </c>
-      <c r="S142">
-        <v>1</v>
+      <c r="S142" s="1">
+        <v>0</v>
       </c>
       <c r="T142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>147</v>
       </c>
@@ -10541,8 +10970,11 @@
       <c r="T143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>148</v>
       </c>
@@ -10591,20 +11023,23 @@
       <c r="P144">
         <v>1</v>
       </c>
-      <c r="Q144" s="1">
-        <v>0</v>
+      <c r="Q144">
+        <v>1</v>
       </c>
       <c r="R144">
         <v>1</v>
       </c>
-      <c r="S144">
-        <v>1</v>
+      <c r="S144" s="1">
+        <v>0</v>
       </c>
       <c r="T144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>149</v>
       </c>
@@ -10653,20 +11088,23 @@
       <c r="P145">
         <v>1</v>
       </c>
-      <c r="Q145" s="1">
-        <v>0</v>
+      <c r="Q145">
+        <v>1</v>
       </c>
       <c r="R145">
         <v>1</v>
       </c>
-      <c r="S145">
-        <v>1</v>
+      <c r="S145" s="1">
+        <v>0</v>
       </c>
       <c r="T145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>150</v>
       </c>
@@ -10727,8 +11165,11 @@
       <c r="T146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>151</v>
       </c>
@@ -10777,20 +11218,23 @@
       <c r="P147">
         <v>1</v>
       </c>
-      <c r="Q147" s="1">
-        <v>0</v>
+      <c r="Q147">
+        <v>1</v>
       </c>
       <c r="R147">
         <v>1</v>
       </c>
-      <c r="S147">
-        <v>1</v>
+      <c r="S147" s="1">
+        <v>0</v>
       </c>
       <c r="T147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>152</v>
       </c>
@@ -10839,20 +11283,23 @@
       <c r="P148">
         <v>1</v>
       </c>
-      <c r="Q148" s="1">
-        <v>0</v>
+      <c r="Q148">
+        <v>1</v>
       </c>
       <c r="R148">
         <v>1</v>
       </c>
-      <c r="S148">
-        <v>1</v>
+      <c r="S148" s="1">
+        <v>0</v>
       </c>
       <c r="T148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>153</v>
       </c>
@@ -10901,20 +11348,23 @@
       <c r="P149">
         <v>1</v>
       </c>
-      <c r="Q149" s="1">
-        <v>0</v>
+      <c r="Q149">
+        <v>1</v>
       </c>
       <c r="R149">
         <v>1</v>
       </c>
-      <c r="S149">
-        <v>1</v>
+      <c r="S149" s="1">
+        <v>0</v>
       </c>
       <c r="T149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>154</v>
       </c>
@@ -10963,20 +11413,23 @@
       <c r="P150">
         <v>1</v>
       </c>
-      <c r="Q150" s="1">
-        <v>0</v>
+      <c r="Q150">
+        <v>1</v>
       </c>
       <c r="R150">
         <v>1</v>
       </c>
-      <c r="S150">
-        <v>1</v>
+      <c r="S150" s="1">
+        <v>0</v>
       </c>
       <c r="T150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>156</v>
       </c>
@@ -11025,20 +11478,23 @@
       <c r="P151">
         <v>1</v>
       </c>
-      <c r="Q151" s="1">
-        <v>0</v>
+      <c r="Q151">
+        <v>1</v>
       </c>
       <c r="R151">
         <v>1</v>
       </c>
-      <c r="S151">
-        <v>1</v>
+      <c r="S151" s="1">
+        <v>0</v>
       </c>
       <c r="T151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>159</v>
       </c>
@@ -11087,20 +11543,23 @@
       <c r="P152">
         <v>44000</v>
       </c>
-      <c r="Q152" s="1">
-        <v>0</v>
+      <c r="Q152">
+        <v>44000</v>
       </c>
       <c r="R152">
         <v>44000</v>
       </c>
-      <c r="S152">
-        <v>44000</v>
+      <c r="S152" s="1">
+        <v>0</v>
       </c>
       <c r="T152">
         <v>44000</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U152">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>160</v>
       </c>
@@ -11149,20 +11608,23 @@
       <c r="P153">
         <v>9000</v>
       </c>
-      <c r="Q153" s="1">
-        <v>0</v>
+      <c r="Q153">
+        <v>9000</v>
       </c>
       <c r="R153">
         <v>9000</v>
       </c>
-      <c r="S153">
-        <v>9000</v>
+      <c r="S153" s="1">
+        <v>0</v>
       </c>
       <c r="T153">
         <v>9000</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U153">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>161</v>
       </c>
@@ -11211,20 +11673,23 @@
       <c r="P154">
         <v>1550</v>
       </c>
-      <c r="Q154" s="1">
-        <v>0</v>
+      <c r="Q154">
+        <v>1550</v>
       </c>
       <c r="R154">
         <v>1550</v>
       </c>
-      <c r="S154">
-        <v>1550</v>
+      <c r="S154" s="1">
+        <v>0</v>
       </c>
       <c r="T154">
         <v>1550</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U154">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>162</v>
       </c>
@@ -11273,20 +11738,23 @@
       <c r="P155">
         <v>780</v>
       </c>
-      <c r="Q155" s="1">
-        <v>0</v>
+      <c r="Q155">
+        <v>780</v>
       </c>
       <c r="R155">
         <v>780</v>
       </c>
-      <c r="S155">
-        <v>780</v>
+      <c r="S155" s="1">
+        <v>0</v>
       </c>
       <c r="T155">
         <v>780</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U155">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>163</v>
       </c>
@@ -11335,20 +11803,23 @@
       <c r="P156">
         <v>45</v>
       </c>
-      <c r="Q156" s="1">
-        <v>0</v>
+      <c r="Q156">
+        <v>45</v>
       </c>
       <c r="R156">
         <v>45</v>
       </c>
-      <c r="S156">
-        <v>45</v>
+      <c r="S156" s="1">
+        <v>0</v>
       </c>
       <c r="T156">
         <v>45</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U156">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>164</v>
       </c>
@@ -11409,8 +11880,11 @@
       <c r="T157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>165</v>
       </c>
@@ -11471,8 +11945,11 @@
       <c r="T158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>166</v>
       </c>
@@ -11533,8 +12010,11 @@
       <c r="T159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>167</v>
       </c>
@@ -11595,8 +12075,11 @@
       <c r="T160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>168</v>
       </c>
@@ -11645,20 +12128,23 @@
       <c r="P161">
         <v>1</v>
       </c>
-      <c r="Q161" s="1">
-        <v>0</v>
+      <c r="Q161">
+        <v>1</v>
       </c>
       <c r="R161">
         <v>1</v>
       </c>
-      <c r="S161">
-        <v>1</v>
+      <c r="S161" s="1">
+        <v>0</v>
       </c>
       <c r="T161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>169</v>
       </c>
@@ -11707,20 +12193,23 @@
       <c r="P162">
         <v>1</v>
       </c>
-      <c r="Q162" s="1">
-        <v>0</v>
+      <c r="Q162">
+        <v>1</v>
       </c>
       <c r="R162">
         <v>1</v>
       </c>
-      <c r="S162">
-        <v>1</v>
+      <c r="S162" s="1">
+        <v>0</v>
       </c>
       <c r="T162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>170</v>
       </c>
@@ -11769,20 +12258,23 @@
       <c r="P163">
         <v>1</v>
       </c>
-      <c r="Q163" s="1">
-        <v>0</v>
+      <c r="Q163">
+        <v>1</v>
       </c>
       <c r="R163">
         <v>1</v>
       </c>
-      <c r="S163">
-        <v>1</v>
+      <c r="S163" s="1">
+        <v>0</v>
       </c>
       <c r="T163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>171</v>
       </c>
@@ -11831,20 +12323,23 @@
       <c r="P164">
         <v>1</v>
       </c>
-      <c r="Q164" s="1">
-        <v>0</v>
+      <c r="Q164">
+        <v>1</v>
       </c>
       <c r="R164">
         <v>1</v>
       </c>
-      <c r="S164">
-        <v>1</v>
+      <c r="S164" s="1">
+        <v>0</v>
       </c>
       <c r="T164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>172</v>
       </c>
@@ -11893,20 +12388,23 @@
       <c r="P165">
         <v>1</v>
       </c>
-      <c r="Q165" s="1">
-        <v>0</v>
+      <c r="Q165">
+        <v>1</v>
       </c>
       <c r="R165">
         <v>1</v>
       </c>
-      <c r="S165">
-        <v>1</v>
+      <c r="S165" s="1">
+        <v>0</v>
       </c>
       <c r="T165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>173</v>
       </c>
@@ -11967,8 +12465,11 @@
       <c r="T166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>174</v>
       </c>
@@ -12017,20 +12518,23 @@
       <c r="P167">
         <v>1</v>
       </c>
-      <c r="Q167" s="1">
-        <v>0</v>
+      <c r="Q167">
+        <v>1</v>
       </c>
       <c r="R167">
         <v>1</v>
       </c>
-      <c r="S167">
-        <v>1</v>
+      <c r="S167" s="1">
+        <v>0</v>
       </c>
       <c r="T167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>175</v>
       </c>
@@ -12091,8 +12595,11 @@
       <c r="T168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>176</v>
       </c>
@@ -12153,8 +12660,11 @@
       <c r="T169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>177</v>
       </c>
@@ -12215,8 +12725,11 @@
       <c r="T170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>178</v>
       </c>
@@ -12277,8 +12790,11 @@
       <c r="T171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>179</v>
       </c>
@@ -12339,8 +12855,11 @@
       <c r="T172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>180</v>
       </c>
@@ -12401,8 +12920,11 @@
       <c r="T173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>181</v>
       </c>
@@ -12463,8 +12985,11 @@
       <c r="T174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>182</v>
       </c>
@@ -12525,8 +13050,11 @@
       <c r="T175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>183</v>
       </c>
@@ -12587,8 +13115,11 @@
       <c r="T176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>185</v>
       </c>
@@ -12649,8 +13180,11 @@
       <c r="T177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>186</v>
       </c>
@@ -12711,8 +13245,11 @@
       <c r="T178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>188</v>
       </c>
@@ -12773,8 +13310,11 @@
       <c r="T179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>189</v>
       </c>
@@ -12835,8 +13375,11 @@
       <c r="T180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>190</v>
       </c>
@@ -12897,8 +13440,11 @@
       <c r="T181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>191</v>
       </c>
@@ -12947,20 +13493,23 @@
       <c r="P182">
         <v>25</v>
       </c>
-      <c r="Q182" s="1">
-        <v>0</v>
+      <c r="Q182">
+        <v>25</v>
       </c>
       <c r="R182">
         <v>25</v>
       </c>
-      <c r="S182">
-        <v>25</v>
+      <c r="S182" s="1">
+        <v>0</v>
       </c>
       <c r="T182">
         <v>25</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U182">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>192</v>
       </c>
@@ -13009,20 +13558,23 @@
       <c r="P183">
         <v>1</v>
       </c>
-      <c r="Q183" s="1">
-        <v>0</v>
+      <c r="Q183">
+        <v>1</v>
       </c>
       <c r="R183">
         <v>1</v>
       </c>
-      <c r="S183">
-        <v>1</v>
+      <c r="S183" s="1">
+        <v>0</v>
       </c>
       <c r="T183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>193</v>
       </c>
@@ -13071,20 +13623,23 @@
       <c r="P184">
         <v>1</v>
       </c>
-      <c r="Q184" s="1">
-        <v>0</v>
+      <c r="Q184">
+        <v>1</v>
       </c>
       <c r="R184">
         <v>1</v>
       </c>
-      <c r="S184">
-        <v>1</v>
+      <c r="S184" s="1">
+        <v>0</v>
       </c>
       <c r="T184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>194</v>
       </c>
@@ -13133,20 +13688,23 @@
       <c r="P185">
         <v>1</v>
       </c>
-      <c r="Q185" s="1">
-        <v>0</v>
+      <c r="Q185">
+        <v>1</v>
       </c>
       <c r="R185">
         <v>1</v>
       </c>
-      <c r="S185">
-        <v>1</v>
+      <c r="S185" s="1">
+        <v>0</v>
       </c>
       <c r="T185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>195</v>
       </c>
@@ -13195,20 +13753,23 @@
       <c r="P186">
         <v>1</v>
       </c>
-      <c r="Q186" s="1">
-        <v>0</v>
+      <c r="Q186">
+        <v>1</v>
       </c>
       <c r="R186">
         <v>1</v>
       </c>
-      <c r="S186">
-        <v>1</v>
+      <c r="S186" s="1">
+        <v>0</v>
       </c>
       <c r="T186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>196</v>
       </c>
@@ -13257,20 +13818,23 @@
       <c r="P187">
         <v>1</v>
       </c>
-      <c r="Q187" s="1">
-        <v>0</v>
+      <c r="Q187">
+        <v>1</v>
       </c>
       <c r="R187">
         <v>1</v>
       </c>
-      <c r="S187">
-        <v>1</v>
+      <c r="S187" s="1">
+        <v>0</v>
       </c>
       <c r="T187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>197</v>
       </c>
@@ -13331,8 +13895,11 @@
       <c r="T188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>198</v>
       </c>
@@ -13393,8 +13960,11 @@
       <c r="T189" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>199</v>
       </c>
@@ -13455,8 +14025,11 @@
       <c r="T190" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U190" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>200</v>
       </c>
@@ -13517,8 +14090,11 @@
       <c r="T191" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U191" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>201</v>
       </c>
@@ -13579,8 +14155,11 @@
       <c r="T192" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>202</v>
       </c>
@@ -13641,8 +14220,11 @@
       <c r="T193" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U193" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>203</v>
       </c>
@@ -13703,8 +14285,11 @@
       <c r="T194" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U194" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>204</v>
       </c>
@@ -13765,8 +14350,11 @@
       <c r="T195" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>205</v>
       </c>
@@ -13813,13 +14401,13 @@
         <v>0</v>
       </c>
       <c r="P196" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q196" s="5">
         <v>0</v>
       </c>
       <c r="R196" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S196" s="5">
         <v>0</v>
@@ -13827,8 +14415,11 @@
       <c r="T196" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U196" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>206</v>
       </c>
@@ -13872,16 +14463,16 @@
         <v>0</v>
       </c>
       <c r="O197" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P197" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q197" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R197" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S197" s="5">
         <v>0</v>
@@ -13889,8 +14480,11 @@
       <c r="T197" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U197" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>214</v>
       </c>
@@ -13940,19 +14534,22 @@
         <v>1</v>
       </c>
       <c r="Q198" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R198" s="1">
         <v>1</v>
       </c>
       <c r="S198" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T198" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>215</v>
       </c>
@@ -14013,8 +14610,11 @@
       <c r="T199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>216</v>
       </c>
@@ -14075,8 +14675,11 @@
       <c r="T200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>217</v>
       </c>
@@ -14137,8 +14740,11 @@
       <c r="T201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>218</v>
       </c>
@@ -14187,20 +14793,23 @@
       <c r="P202">
         <v>1</v>
       </c>
-      <c r="Q202" s="1">
-        <v>0</v>
+      <c r="Q202">
+        <v>1</v>
       </c>
       <c r="R202">
         <v>1</v>
       </c>
-      <c r="S202">
-        <v>1</v>
+      <c r="S202" s="1">
+        <v>0</v>
       </c>
       <c r="T202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>219</v>
       </c>
@@ -14249,20 +14858,23 @@
       <c r="P203">
         <v>1</v>
       </c>
-      <c r="Q203" s="1">
-        <v>0</v>
+      <c r="Q203">
+        <v>1</v>
       </c>
       <c r="R203">
         <v>1</v>
       </c>
-      <c r="S203">
-        <v>1</v>
+      <c r="S203" s="1">
+        <v>0</v>
       </c>
       <c r="T203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>220</v>
       </c>
@@ -14311,20 +14923,23 @@
       <c r="P204">
         <v>1</v>
       </c>
-      <c r="Q204" s="1">
-        <v>0</v>
+      <c r="Q204">
+        <v>1</v>
       </c>
       <c r="R204">
         <v>1</v>
       </c>
-      <c r="S204">
-        <v>1</v>
+      <c r="S204" s="1">
+        <v>0</v>
       </c>
       <c r="T204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>223</v>
       </c>
@@ -14373,20 +14988,23 @@
       <c r="P205">
         <v>1</v>
       </c>
-      <c r="Q205" s="1">
-        <v>0</v>
+      <c r="Q205">
+        <v>1</v>
       </c>
       <c r="R205">
         <v>1</v>
       </c>
-      <c r="S205">
-        <v>1</v>
+      <c r="S205" s="1">
+        <v>0</v>
       </c>
       <c r="T205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>224</v>
       </c>
@@ -14435,20 +15053,23 @@
       <c r="P206">
         <v>1</v>
       </c>
-      <c r="Q206" s="1">
-        <v>0</v>
+      <c r="Q206">
+        <v>1</v>
       </c>
       <c r="R206">
         <v>1</v>
       </c>
-      <c r="S206">
-        <v>1</v>
+      <c r="S206" s="1">
+        <v>0</v>
       </c>
       <c r="T206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>225</v>
       </c>
@@ -14509,8 +15130,11 @@
       <c r="T207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>226</v>
       </c>
@@ -14559,20 +15183,23 @@
       <c r="P208">
         <v>1</v>
       </c>
-      <c r="Q208" s="1">
-        <v>0</v>
+      <c r="Q208">
+        <v>1</v>
       </c>
       <c r="R208">
         <v>1</v>
       </c>
-      <c r="S208">
-        <v>1</v>
+      <c r="S208" s="1">
+        <v>0</v>
       </c>
       <c r="T208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>227</v>
       </c>
@@ -14621,20 +15248,23 @@
       <c r="P209">
         <v>1</v>
       </c>
-      <c r="Q209" s="1">
-        <v>0</v>
+      <c r="Q209">
+        <v>1</v>
       </c>
       <c r="R209">
         <v>1</v>
       </c>
-      <c r="S209">
-        <v>1</v>
+      <c r="S209" s="1">
+        <v>0</v>
       </c>
       <c r="T209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>228</v>
       </c>
@@ -14683,20 +15313,23 @@
       <c r="P210">
         <v>1</v>
       </c>
-      <c r="Q210" s="1">
-        <v>0</v>
+      <c r="Q210">
+        <v>1</v>
       </c>
       <c r="R210">
         <v>1</v>
       </c>
-      <c r="S210">
-        <v>1</v>
+      <c r="S210" s="1">
+        <v>0</v>
       </c>
       <c r="T210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>229</v>
       </c>
@@ -14745,20 +15378,23 @@
       <c r="P211">
         <v>1</v>
       </c>
-      <c r="Q211" s="1">
-        <v>0</v>
+      <c r="Q211">
+        <v>1</v>
       </c>
       <c r="R211">
         <v>1</v>
       </c>
-      <c r="S211">
-        <v>1</v>
+      <c r="S211" s="1">
+        <v>0</v>
       </c>
       <c r="T211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>230</v>
       </c>
@@ -14807,20 +15443,23 @@
       <c r="P212">
         <v>1</v>
       </c>
-      <c r="Q212" s="1">
-        <v>0</v>
+      <c r="Q212">
+        <v>1</v>
       </c>
       <c r="R212">
         <v>1</v>
       </c>
-      <c r="S212">
-        <v>1</v>
+      <c r="S212" s="1">
+        <v>0</v>
       </c>
       <c r="T212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>231</v>
       </c>
@@ -14869,20 +15508,23 @@
       <c r="P213">
         <v>1</v>
       </c>
-      <c r="Q213" s="1">
-        <v>0</v>
+      <c r="Q213">
+        <v>1</v>
       </c>
       <c r="R213">
         <v>1</v>
       </c>
-      <c r="S213">
-        <v>1</v>
+      <c r="S213" s="1">
+        <v>0</v>
       </c>
       <c r="T213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>234</v>
       </c>
@@ -14931,20 +15573,23 @@
       <c r="P214">
         <v>1</v>
       </c>
-      <c r="Q214" s="1">
-        <v>0</v>
+      <c r="Q214">
+        <v>1</v>
       </c>
       <c r="R214">
         <v>1</v>
       </c>
-      <c r="S214">
-        <v>1</v>
+      <c r="S214" s="1">
+        <v>0</v>
       </c>
       <c r="T214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>235</v>
       </c>
@@ -14993,20 +15638,23 @@
       <c r="P215">
         <v>1</v>
       </c>
-      <c r="Q215" s="1">
-        <v>0</v>
+      <c r="Q215">
+        <v>1</v>
       </c>
       <c r="R215">
         <v>1</v>
       </c>
-      <c r="S215">
-        <v>1</v>
+      <c r="S215" s="1">
+        <v>0</v>
       </c>
       <c r="T215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>238</v>
       </c>
@@ -15067,8 +15715,11 @@
       <c r="T216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>239</v>
       </c>
@@ -15129,8 +15780,11 @@
       <c r="T217" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>240</v>
       </c>
@@ -15191,8 +15845,11 @@
       <c r="T218" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>241</v>
       </c>
@@ -15242,19 +15899,22 @@
         <v>1</v>
       </c>
       <c r="Q219" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R219" s="1">
         <v>1</v>
       </c>
       <c r="S219" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T219" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>242</v>
       </c>
@@ -15304,19 +15964,22 @@
         <v>1</v>
       </c>
       <c r="Q220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R220" s="1">
         <v>1</v>
       </c>
       <c r="S220" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T220" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U220" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>243</v>
       </c>
@@ -15377,8 +16040,11 @@
       <c r="T221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>244</v>
       </c>
@@ -15439,8 +16105,11 @@
       <c r="T222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>245</v>
       </c>
@@ -15501,8 +16170,11 @@
       <c r="T223" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>248</v>
       </c>
@@ -15563,8 +16235,11 @@
       <c r="T224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>249</v>
       </c>
@@ -15613,20 +16288,23 @@
       <c r="P225">
         <v>1</v>
       </c>
-      <c r="Q225" s="1">
-        <v>0</v>
+      <c r="Q225">
+        <v>1</v>
       </c>
       <c r="R225">
         <v>1</v>
       </c>
-      <c r="S225">
-        <v>1</v>
+      <c r="S225" s="1">
+        <v>0</v>
       </c>
       <c r="T225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>250</v>
       </c>
@@ -15675,20 +16353,23 @@
       <c r="P226">
         <v>1</v>
       </c>
-      <c r="Q226" s="1">
-        <v>0</v>
+      <c r="Q226">
+        <v>1</v>
       </c>
       <c r="R226">
         <v>1</v>
       </c>
-      <c r="S226">
-        <v>1</v>
+      <c r="S226" s="1">
+        <v>0</v>
       </c>
       <c r="T226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>257</v>
       </c>
@@ -15737,20 +16418,23 @@
       <c r="P227">
         <v>1</v>
       </c>
-      <c r="Q227" s="1">
-        <v>0</v>
+      <c r="Q227">
+        <v>1</v>
       </c>
       <c r="R227">
         <v>1</v>
       </c>
-      <c r="S227">
-        <v>1</v>
+      <c r="S227" s="1">
+        <v>0</v>
       </c>
       <c r="T227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>258</v>
       </c>
@@ -15799,20 +16483,23 @@
       <c r="P228">
         <v>1</v>
       </c>
-      <c r="Q228" s="1">
-        <v>0</v>
+      <c r="Q228">
+        <v>1</v>
       </c>
       <c r="R228">
         <v>1</v>
       </c>
-      <c r="S228">
-        <v>1</v>
+      <c r="S228" s="1">
+        <v>0</v>
       </c>
       <c r="T228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>259</v>
       </c>
@@ -15861,20 +16548,23 @@
       <c r="P229">
         <v>1</v>
       </c>
-      <c r="Q229" s="1">
-        <v>0</v>
+      <c r="Q229">
+        <v>1</v>
       </c>
       <c r="R229">
         <v>1</v>
       </c>
-      <c r="S229">
-        <v>1</v>
+      <c r="S229" s="1">
+        <v>0</v>
       </c>
       <c r="T229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>263</v>
       </c>
@@ -15923,20 +16613,23 @@
       <c r="P230">
         <v>1</v>
       </c>
-      <c r="Q230" s="1">
-        <v>0</v>
+      <c r="Q230">
+        <v>1</v>
       </c>
       <c r="R230">
         <v>1</v>
       </c>
-      <c r="S230">
-        <v>1</v>
+      <c r="S230" s="1">
+        <v>0</v>
       </c>
       <c r="T230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>264</v>
       </c>
@@ -15985,20 +16678,23 @@
       <c r="P231">
         <v>1</v>
       </c>
-      <c r="Q231" s="1">
-        <v>0</v>
+      <c r="Q231">
+        <v>1</v>
       </c>
       <c r="R231">
         <v>1</v>
       </c>
-      <c r="S231">
-        <v>1</v>
+      <c r="S231" s="1">
+        <v>0</v>
       </c>
       <c r="T231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>266</v>
       </c>
@@ -16047,20 +16743,23 @@
       <c r="P232">
         <v>1</v>
       </c>
-      <c r="Q232" s="1">
-        <v>0</v>
+      <c r="Q232">
+        <v>1</v>
       </c>
       <c r="R232">
         <v>1</v>
       </c>
-      <c r="S232">
-        <v>1</v>
+      <c r="S232" s="1">
+        <v>0</v>
       </c>
       <c r="T232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>267</v>
       </c>
@@ -16121,8 +16820,11 @@
       <c r="T233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>268</v>
       </c>
@@ -16183,8 +16885,11 @@
       <c r="T234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>269</v>
       </c>
@@ -16245,8 +16950,11 @@
       <c r="T235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>270</v>
       </c>
@@ -16295,20 +17003,23 @@
       <c r="P236">
         <v>1</v>
       </c>
-      <c r="Q236" s="1">
-        <v>0</v>
+      <c r="Q236">
+        <v>1</v>
       </c>
       <c r="R236">
         <v>1</v>
       </c>
-      <c r="S236">
-        <v>1</v>
+      <c r="S236" s="1">
+        <v>0</v>
       </c>
       <c r="T236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>271</v>
       </c>
@@ -16357,20 +17068,23 @@
       <c r="P237">
         <v>1</v>
       </c>
-      <c r="Q237" s="1">
-        <v>0</v>
+      <c r="Q237">
+        <v>1</v>
       </c>
       <c r="R237">
         <v>1</v>
       </c>
-      <c r="S237">
-        <v>1</v>
+      <c r="S237" s="1">
+        <v>0</v>
       </c>
       <c r="T237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>272</v>
       </c>
@@ -16419,20 +17133,23 @@
       <c r="P238">
         <v>1</v>
       </c>
-      <c r="Q238" s="1">
-        <v>0</v>
+      <c r="Q238">
+        <v>1</v>
       </c>
       <c r="R238">
         <v>1</v>
       </c>
-      <c r="S238">
-        <v>1</v>
+      <c r="S238" s="1">
+        <v>0</v>
       </c>
       <c r="T238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>278</v>
       </c>
@@ -16493,8 +17210,11 @@
       <c r="T239" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>279</v>
       </c>
@@ -16543,20 +17263,23 @@
       <c r="P240">
         <v>1</v>
       </c>
-      <c r="Q240" s="1">
-        <v>0</v>
+      <c r="Q240">
+        <v>1</v>
       </c>
       <c r="R240">
         <v>1</v>
       </c>
-      <c r="S240">
-        <v>1</v>
+      <c r="S240" s="1">
+        <v>0</v>
       </c>
       <c r="T240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>280</v>
       </c>
@@ -16605,20 +17328,23 @@
       <c r="P241">
         <v>1</v>
       </c>
-      <c r="Q241" s="1">
-        <v>0</v>
+      <c r="Q241">
+        <v>1</v>
       </c>
       <c r="R241">
         <v>1</v>
       </c>
-      <c r="S241">
-        <v>1</v>
+      <c r="S241" s="1">
+        <v>0</v>
       </c>
       <c r="T241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>281</v>
       </c>
@@ -16667,20 +17393,23 @@
       <c r="P242">
         <v>1</v>
       </c>
-      <c r="Q242" s="1">
-        <v>0</v>
+      <c r="Q242">
+        <v>1</v>
       </c>
       <c r="R242">
         <v>1</v>
       </c>
-      <c r="S242">
-        <v>1</v>
+      <c r="S242" s="1">
+        <v>0</v>
       </c>
       <c r="T242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>282</v>
       </c>
@@ -16729,20 +17458,23 @@
       <c r="P243">
         <v>1</v>
       </c>
-      <c r="Q243" s="1">
-        <v>0</v>
+      <c r="Q243">
+        <v>1</v>
       </c>
       <c r="R243">
         <v>1</v>
       </c>
-      <c r="S243">
-        <v>1</v>
+      <c r="S243" s="1">
+        <v>0</v>
       </c>
       <c r="T243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>283</v>
       </c>
@@ -16791,20 +17523,23 @@
       <c r="P244">
         <v>1</v>
       </c>
-      <c r="Q244" s="1">
-        <v>0</v>
+      <c r="Q244">
+        <v>1</v>
       </c>
       <c r="R244">
         <v>1</v>
       </c>
-      <c r="S244">
-        <v>1</v>
+      <c r="S244" s="1">
+        <v>0</v>
       </c>
       <c r="T244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>284</v>
       </c>
@@ -16853,20 +17588,23 @@
       <c r="P245">
         <v>1</v>
       </c>
-      <c r="Q245" s="1">
-        <v>0</v>
+      <c r="Q245">
+        <v>1</v>
       </c>
       <c r="R245">
         <v>1</v>
       </c>
-      <c r="S245">
-        <v>1</v>
+      <c r="S245" s="1">
+        <v>0</v>
       </c>
       <c r="T245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>286</v>
       </c>
@@ -16927,8 +17665,11 @@
       <c r="T246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>287</v>
       </c>
@@ -16977,20 +17718,23 @@
       <c r="P247">
         <v>1</v>
       </c>
-      <c r="Q247" s="1">
-        <v>0</v>
+      <c r="Q247">
+        <v>1</v>
       </c>
       <c r="R247">
         <v>1</v>
       </c>
-      <c r="S247">
-        <v>1</v>
+      <c r="S247" s="1">
+        <v>0</v>
       </c>
       <c r="T247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>288</v>
       </c>
@@ -17039,20 +17783,23 @@
       <c r="P248">
         <v>1</v>
       </c>
-      <c r="Q248" s="1">
-        <v>0</v>
+      <c r="Q248">
+        <v>1</v>
       </c>
       <c r="R248">
         <v>1</v>
       </c>
-      <c r="S248">
-        <v>1</v>
+      <c r="S248" s="1">
+        <v>0</v>
       </c>
       <c r="T248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>290</v>
       </c>
@@ -17101,20 +17848,23 @@
       <c r="P249">
         <v>1</v>
       </c>
-      <c r="Q249" s="1">
-        <v>0</v>
+      <c r="Q249">
+        <v>1</v>
       </c>
       <c r="R249">
         <v>1</v>
       </c>
-      <c r="S249">
-        <v>1</v>
+      <c r="S249" s="1">
+        <v>0</v>
       </c>
       <c r="T249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>291</v>
       </c>
@@ -17163,20 +17913,23 @@
       <c r="P250">
         <v>1</v>
       </c>
-      <c r="Q250" s="1">
-        <v>0</v>
+      <c r="Q250">
+        <v>1</v>
       </c>
       <c r="R250">
         <v>1</v>
       </c>
-      <c r="S250">
-        <v>1</v>
+      <c r="S250" s="1">
+        <v>0</v>
       </c>
       <c r="T250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>298</v>
       </c>
@@ -17225,20 +17978,23 @@
       <c r="P251">
         <v>190</v>
       </c>
-      <c r="Q251" s="1">
-        <v>0</v>
+      <c r="Q251">
+        <v>190</v>
       </c>
       <c r="R251">
         <v>190</v>
       </c>
-      <c r="S251">
-        <v>190</v>
+      <c r="S251" s="1">
+        <v>0</v>
       </c>
       <c r="T251">
         <v>190</v>
       </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U251">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>305</v>
       </c>
@@ -17287,20 +18043,23 @@
       <c r="P252">
         <v>64000</v>
       </c>
-      <c r="Q252" s="1">
-        <v>0</v>
+      <c r="Q252">
+        <v>64000</v>
       </c>
       <c r="R252">
         <v>64000</v>
       </c>
-      <c r="S252">
-        <v>64000</v>
+      <c r="S252" s="1">
+        <v>0</v>
       </c>
       <c r="T252">
         <v>64000</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U252">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>306</v>
       </c>
@@ -17349,20 +18108,23 @@
       <c r="P253">
         <v>17000</v>
       </c>
-      <c r="Q253" s="1">
-        <v>0</v>
+      <c r="Q253">
+        <v>17000</v>
       </c>
       <c r="R253">
         <v>17000</v>
       </c>
-      <c r="S253">
-        <v>17000</v>
+      <c r="S253" s="1">
+        <v>0</v>
       </c>
       <c r="T253">
         <v>17000</v>
       </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U253">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>307</v>
       </c>
@@ -17411,20 +18173,23 @@
       <c r="P254">
         <v>1500</v>
       </c>
-      <c r="Q254" s="1">
-        <v>0</v>
+      <c r="Q254">
+        <v>1500</v>
       </c>
       <c r="R254">
         <v>1500</v>
       </c>
-      <c r="S254">
-        <v>1500</v>
+      <c r="S254" s="1">
+        <v>0</v>
       </c>
       <c r="T254">
         <v>1500</v>
       </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U254">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>308</v>
       </c>
@@ -17473,20 +18238,23 @@
       <c r="P255">
         <v>350</v>
       </c>
-      <c r="Q255" s="1">
-        <v>0</v>
+      <c r="Q255">
+        <v>350</v>
       </c>
       <c r="R255">
         <v>350</v>
       </c>
-      <c r="S255">
-        <v>350</v>
+      <c r="S255" s="1">
+        <v>0</v>
       </c>
       <c r="T255">
         <v>350</v>
       </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U255">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>309</v>
       </c>
@@ -17535,20 +18303,23 @@
       <c r="P256">
         <v>1</v>
       </c>
-      <c r="Q256" s="1">
-        <v>0</v>
+      <c r="Q256">
+        <v>1</v>
       </c>
       <c r="R256">
         <v>1</v>
       </c>
-      <c r="S256">
-        <v>1</v>
+      <c r="S256" s="1">
+        <v>0</v>
       </c>
       <c r="T256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>310</v>
       </c>
@@ -17597,20 +18368,23 @@
       <c r="P257">
         <v>1</v>
       </c>
-      <c r="Q257" s="1">
-        <v>0</v>
+      <c r="Q257">
+        <v>1</v>
       </c>
       <c r="R257">
         <v>1</v>
       </c>
-      <c r="S257">
-        <v>1</v>
+      <c r="S257" s="1">
+        <v>0</v>
       </c>
       <c r="T257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>311</v>
       </c>
@@ -17671,8 +18445,11 @@
       <c r="T258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>312</v>
       </c>
@@ -17733,8 +18510,11 @@
       <c r="T259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>314</v>
       </c>
@@ -17795,8 +18575,11 @@
       <c r="T260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>315</v>
       </c>
@@ -17857,8 +18640,11 @@
       <c r="T261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>316</v>
       </c>
@@ -17919,8 +18705,11 @@
       <c r="T262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>317</v>
       </c>
@@ -17981,8 +18770,11 @@
       <c r="T263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>318</v>
       </c>
@@ -18031,20 +18823,23 @@
       <c r="P264">
         <v>1</v>
       </c>
-      <c r="Q264" s="1">
-        <v>0</v>
+      <c r="Q264">
+        <v>1</v>
       </c>
       <c r="R264">
         <v>1</v>
       </c>
-      <c r="S264">
-        <v>1</v>
+      <c r="S264" s="1">
+        <v>0</v>
       </c>
       <c r="T264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>320</v>
       </c>
@@ -18093,20 +18888,23 @@
       <c r="P265">
         <v>28327</v>
       </c>
-      <c r="Q265" s="1">
-        <v>0</v>
+      <c r="Q265">
+        <v>28327</v>
       </c>
       <c r="R265">
         <v>28327</v>
       </c>
-      <c r="S265">
-        <v>28327</v>
+      <c r="S265" s="1">
+        <v>0</v>
       </c>
       <c r="T265">
         <v>28327</v>
       </c>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U265">
+        <v>28327</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>321</v>
       </c>
@@ -18155,20 +18953,23 @@
       <c r="P266">
         <v>1820</v>
       </c>
-      <c r="Q266" s="1">
-        <v>0</v>
+      <c r="Q266">
+        <v>1820</v>
       </c>
       <c r="R266">
         <v>1820</v>
       </c>
-      <c r="S266">
-        <v>1820</v>
+      <c r="S266" s="1">
+        <v>0</v>
       </c>
       <c r="T266">
         <v>1820</v>
       </c>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U266">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>322</v>
       </c>
@@ -18217,20 +19018,23 @@
       <c r="P267">
         <v>264</v>
       </c>
-      <c r="Q267" s="1">
-        <v>0</v>
+      <c r="Q267">
+        <v>264</v>
       </c>
       <c r="R267">
         <v>264</v>
       </c>
-      <c r="S267">
-        <v>264</v>
+      <c r="S267" s="1">
+        <v>0</v>
       </c>
       <c r="T267">
         <v>264</v>
       </c>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U267">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>323</v>
       </c>
@@ -18279,20 +19083,23 @@
       <c r="P268">
         <v>45</v>
       </c>
-      <c r="Q268" s="1">
-        <v>0</v>
+      <c r="Q268">
+        <v>45</v>
       </c>
       <c r="R268">
         <v>45</v>
       </c>
-      <c r="S268">
-        <v>45</v>
+      <c r="S268" s="1">
+        <v>0</v>
       </c>
       <c r="T268">
         <v>45</v>
       </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U268">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>324</v>
       </c>
@@ -18353,8 +19160,11 @@
       <c r="T269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>327</v>
       </c>
@@ -18415,8 +19225,11 @@
       <c r="T270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>328</v>
       </c>
@@ -18477,8 +19290,11 @@
       <c r="T271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>329</v>
       </c>
@@ -18539,8 +19355,11 @@
       <c r="T272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>330</v>
       </c>
@@ -18601,8 +19420,11 @@
       <c r="T273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>334</v>
       </c>
@@ -18663,8 +19485,11 @@
       <c r="T274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>335</v>
       </c>
@@ -18725,8 +19550,11 @@
       <c r="T275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>336</v>
       </c>
@@ -18775,20 +19603,23 @@
       <c r="P276">
         <v>1</v>
       </c>
-      <c r="Q276" s="1">
-        <v>0</v>
+      <c r="Q276">
+        <v>1</v>
       </c>
       <c r="R276">
         <v>1</v>
       </c>
-      <c r="S276">
-        <v>1</v>
+      <c r="S276" s="1">
+        <v>0</v>
       </c>
       <c r="T276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>337</v>
       </c>
@@ -18837,20 +19668,23 @@
       <c r="P277">
         <v>1</v>
       </c>
-      <c r="Q277" s="1">
-        <v>0</v>
+      <c r="Q277">
+        <v>1</v>
       </c>
       <c r="R277">
         <v>1</v>
       </c>
-      <c r="S277">
-        <v>1</v>
+      <c r="S277" s="1">
+        <v>0</v>
       </c>
       <c r="T277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>340</v>
       </c>
@@ -18899,20 +19733,23 @@
       <c r="P278">
         <v>8400</v>
       </c>
-      <c r="Q278" s="1">
-        <v>0</v>
+      <c r="Q278">
+        <v>8400</v>
       </c>
       <c r="R278">
         <v>8400</v>
       </c>
-      <c r="S278">
-        <v>8400</v>
+      <c r="S278" s="1">
+        <v>0</v>
       </c>
       <c r="T278">
         <v>8400</v>
       </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U278">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>341</v>
       </c>
@@ -18961,20 +19798,23 @@
       <c r="P279">
         <v>170</v>
       </c>
-      <c r="Q279" s="1">
-        <v>0</v>
+      <c r="Q279">
+        <v>170</v>
       </c>
       <c r="R279">
         <v>170</v>
       </c>
-      <c r="S279">
-        <v>170</v>
+      <c r="S279" s="1">
+        <v>0</v>
       </c>
       <c r="T279">
         <v>170</v>
       </c>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U279">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>342</v>
       </c>
@@ -19023,20 +19863,23 @@
       <c r="P280">
         <v>70</v>
       </c>
-      <c r="Q280" s="1">
-        <v>0</v>
+      <c r="Q280">
+        <v>70</v>
       </c>
       <c r="R280">
         <v>70</v>
       </c>
-      <c r="S280">
-        <v>70</v>
+      <c r="S280" s="1">
+        <v>0</v>
       </c>
       <c r="T280">
         <v>70</v>
       </c>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U280">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>343</v>
       </c>
@@ -19085,20 +19928,23 @@
       <c r="P281">
         <v>1</v>
       </c>
-      <c r="Q281" s="1">
-        <v>0</v>
+      <c r="Q281">
+        <v>1</v>
       </c>
       <c r="R281">
         <v>1</v>
       </c>
-      <c r="S281">
-        <v>1</v>
+      <c r="S281" s="1">
+        <v>0</v>
       </c>
       <c r="T281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>345</v>
       </c>
@@ -19159,8 +20005,11 @@
       <c r="T282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>346</v>
       </c>
@@ -19209,20 +20058,23 @@
       <c r="P283">
         <v>1</v>
       </c>
-      <c r="Q283" s="1">
-        <v>0</v>
+      <c r="Q283">
+        <v>1</v>
       </c>
       <c r="R283">
         <v>1</v>
       </c>
-      <c r="S283">
-        <v>1</v>
+      <c r="S283" s="1">
+        <v>0</v>
       </c>
       <c r="T283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>347</v>
       </c>
@@ -19283,8 +20135,11 @@
       <c r="T284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>348</v>
       </c>
@@ -19333,20 +20188,23 @@
       <c r="P285">
         <v>1</v>
       </c>
-      <c r="Q285" s="1">
-        <v>0</v>
+      <c r="Q285">
+        <v>1</v>
       </c>
       <c r="R285">
         <v>1</v>
       </c>
-      <c r="S285">
-        <v>1</v>
+      <c r="S285" s="1">
+        <v>0</v>
       </c>
       <c r="T285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>349</v>
       </c>
@@ -19395,20 +20253,23 @@
       <c r="P286">
         <v>1</v>
       </c>
-      <c r="Q286" s="1">
-        <v>0</v>
+      <c r="Q286">
+        <v>1</v>
       </c>
       <c r="R286">
         <v>1</v>
       </c>
-      <c r="S286">
-        <v>1</v>
+      <c r="S286" s="1">
+        <v>0</v>
       </c>
       <c r="T286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>350</v>
       </c>
@@ -19457,20 +20318,23 @@
       <c r="P287">
         <v>1</v>
       </c>
-      <c r="Q287" s="1">
-        <v>0</v>
+      <c r="Q287">
+        <v>1</v>
       </c>
       <c r="R287">
         <v>1</v>
       </c>
-      <c r="S287">
-        <v>1</v>
+      <c r="S287" s="1">
+        <v>0</v>
       </c>
       <c r="T287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>357</v>
       </c>
@@ -19519,20 +20383,23 @@
       <c r="P288">
         <v>1</v>
       </c>
-      <c r="Q288" s="1">
-        <v>0</v>
+      <c r="Q288">
+        <v>1</v>
       </c>
       <c r="R288">
         <v>1</v>
       </c>
-      <c r="S288">
-        <v>1</v>
+      <c r="S288" s="1">
+        <v>0</v>
       </c>
       <c r="T288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>358</v>
       </c>
@@ -19582,19 +20449,22 @@
         <v>1</v>
       </c>
       <c r="Q289" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R289" s="1">
         <v>1</v>
       </c>
       <c r="S289" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T289" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U289" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>362</v>
       </c>
@@ -19644,19 +20514,22 @@
         <v>1</v>
       </c>
       <c r="Q290" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R290" s="1">
         <v>1</v>
       </c>
       <c r="S290" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T290" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U290" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>363</v>
       </c>
@@ -19706,19 +20579,22 @@
         <v>1</v>
       </c>
       <c r="Q291" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R291" s="1">
         <v>1</v>
       </c>
       <c r="S291" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T291" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U291" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>364</v>
       </c>
@@ -19768,19 +20644,22 @@
         <v>1</v>
       </c>
       <c r="Q292" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R292" s="1">
         <v>1</v>
       </c>
       <c r="S292" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T292" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U292" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>365</v>
       </c>
@@ -19830,19 +20709,22 @@
         <v>1</v>
       </c>
       <c r="Q293" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R293" s="1">
         <v>1</v>
       </c>
       <c r="S293" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T293" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U293" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>366</v>
       </c>
@@ -19892,19 +20774,22 @@
         <v>1</v>
       </c>
       <c r="Q294" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R294" s="1">
         <v>1</v>
       </c>
       <c r="S294" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T294" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U294" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>367</v>
       </c>
@@ -19954,19 +20839,22 @@
         <v>1</v>
       </c>
       <c r="Q295" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R295" s="1">
         <v>1</v>
       </c>
       <c r="S295" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T295" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U295" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>368</v>
       </c>
@@ -20016,19 +20904,22 @@
         <v>1</v>
       </c>
       <c r="Q296" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R296" s="1">
         <v>1</v>
       </c>
       <c r="S296" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T296" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U296" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>369</v>
       </c>
@@ -20078,19 +20969,22 @@
         <v>1</v>
       </c>
       <c r="Q297" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R297" s="1">
         <v>1</v>
       </c>
       <c r="S297" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T297" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U297" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>370</v>
       </c>
@@ -20140,19 +21034,22 @@
         <v>1</v>
       </c>
       <c r="Q298" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R298" s="1">
         <v>1</v>
       </c>
       <c r="S298" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T298" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U298" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>371</v>
       </c>
@@ -20202,19 +21099,22 @@
         <v>1</v>
       </c>
       <c r="Q299" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R299" s="1">
         <v>1</v>
       </c>
       <c r="S299" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T299" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U299" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>383</v>
       </c>
@@ -20263,20 +21163,23 @@
       <c r="P300">
         <v>1</v>
       </c>
-      <c r="Q300" s="1">
-        <v>0</v>
+      <c r="Q300">
+        <v>1</v>
       </c>
       <c r="R300">
         <v>1</v>
       </c>
-      <c r="S300">
-        <v>1</v>
+      <c r="S300" s="1">
+        <v>0</v>
       </c>
       <c r="T300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>384</v>
       </c>
@@ -20325,20 +21228,23 @@
       <c r="P301">
         <v>1</v>
       </c>
-      <c r="Q301" s="1">
-        <v>0</v>
+      <c r="Q301">
+        <v>1</v>
       </c>
       <c r="R301">
         <v>1</v>
       </c>
-      <c r="S301">
-        <v>1</v>
+      <c r="S301" s="1">
+        <v>0</v>
       </c>
       <c r="T301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>385</v>
       </c>
@@ -20387,20 +21293,23 @@
       <c r="P302">
         <v>1</v>
       </c>
-      <c r="Q302" s="1">
-        <v>0</v>
+      <c r="Q302">
+        <v>1</v>
       </c>
       <c r="R302">
         <v>1</v>
       </c>
-      <c r="S302">
-        <v>1</v>
+      <c r="S302" s="1">
+        <v>0</v>
       </c>
       <c r="T302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>386</v>
       </c>
@@ -20449,20 +21358,23 @@
       <c r="P303">
         <v>1</v>
       </c>
-      <c r="Q303" s="1">
-        <v>0</v>
+      <c r="Q303">
+        <v>1</v>
       </c>
       <c r="R303">
         <v>1</v>
       </c>
-      <c r="S303">
-        <v>1</v>
+      <c r="S303" s="1">
+        <v>0</v>
       </c>
       <c r="T303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>389</v>
       </c>
@@ -20523,8 +21435,11 @@
       <c r="T304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>390</v>
       </c>
@@ -20573,20 +21488,23 @@
       <c r="P305">
         <v>1</v>
       </c>
-      <c r="Q305" s="1">
-        <v>0</v>
+      <c r="Q305">
+        <v>1</v>
       </c>
       <c r="R305">
         <v>1</v>
       </c>
-      <c r="S305">
-        <v>1</v>
+      <c r="S305" s="1">
+        <v>0</v>
       </c>
       <c r="T305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>391</v>
       </c>
@@ -20635,20 +21553,23 @@
       <c r="P306">
         <v>100</v>
       </c>
-      <c r="Q306" s="1">
-        <v>0</v>
+      <c r="Q306">
+        <v>100</v>
       </c>
       <c r="R306">
         <v>100</v>
       </c>
-      <c r="S306">
-        <v>100</v>
+      <c r="S306" s="1">
+        <v>0</v>
       </c>
       <c r="T306">
         <v>100</v>
       </c>
-    </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U306">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>392</v>
       </c>
@@ -20697,20 +21618,23 @@
       <c r="P307">
         <v>50</v>
       </c>
-      <c r="Q307" s="1">
-        <v>0</v>
+      <c r="Q307">
+        <v>50</v>
       </c>
       <c r="R307">
         <v>50</v>
       </c>
-      <c r="S307">
-        <v>50</v>
+      <c r="S307" s="1">
+        <v>0</v>
       </c>
       <c r="T307">
         <v>50</v>
       </c>
-    </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U307">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>393</v>
       </c>
@@ -20759,20 +21683,23 @@
       <c r="P308">
         <v>1</v>
       </c>
-      <c r="Q308" s="1">
-        <v>0</v>
+      <c r="Q308">
+        <v>1</v>
       </c>
       <c r="R308">
         <v>1</v>
       </c>
-      <c r="S308">
-        <v>1</v>
+      <c r="S308" s="1">
+        <v>0</v>
       </c>
       <c r="T308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>394</v>
       </c>
@@ -20821,20 +21748,23 @@
       <c r="P309">
         <v>1</v>
       </c>
-      <c r="Q309" s="1">
-        <v>0</v>
+      <c r="Q309">
+        <v>1</v>
       </c>
       <c r="R309">
         <v>1</v>
       </c>
-      <c r="S309">
-        <v>1</v>
+      <c r="S309" s="1">
+        <v>0</v>
       </c>
       <c r="T309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>395</v>
       </c>
@@ -20883,20 +21813,23 @@
       <c r="P310">
         <v>1</v>
       </c>
-      <c r="Q310" s="1">
-        <v>0</v>
+      <c r="Q310">
+        <v>1</v>
       </c>
       <c r="R310">
         <v>1</v>
       </c>
-      <c r="S310">
-        <v>1</v>
+      <c r="S310" s="1">
+        <v>0</v>
       </c>
       <c r="T310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>396</v>
       </c>
@@ -20945,20 +21878,23 @@
       <c r="P311">
         <v>1</v>
       </c>
-      <c r="Q311" s="1">
-        <v>0</v>
+      <c r="Q311">
+        <v>1</v>
       </c>
       <c r="R311">
         <v>1</v>
       </c>
-      <c r="S311">
-        <v>1</v>
+      <c r="S311" s="1">
+        <v>0</v>
       </c>
       <c r="T311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>397</v>
       </c>
@@ -21007,20 +21943,23 @@
       <c r="P312">
         <v>1</v>
       </c>
-      <c r="Q312" s="1">
-        <v>0</v>
+      <c r="Q312">
+        <v>1</v>
       </c>
       <c r="R312">
         <v>1</v>
       </c>
-      <c r="S312">
-        <v>1</v>
+      <c r="S312" s="1">
+        <v>0</v>
       </c>
       <c r="T312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>398</v>
       </c>
@@ -21069,20 +22008,23 @@
       <c r="P313">
         <v>1</v>
       </c>
-      <c r="Q313" s="1">
-        <v>0</v>
+      <c r="Q313">
+        <v>1</v>
       </c>
       <c r="R313">
         <v>1</v>
       </c>
-      <c r="S313">
-        <v>1</v>
+      <c r="S313" s="1">
+        <v>0</v>
       </c>
       <c r="T313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>402</v>
       </c>
@@ -21131,20 +22073,23 @@
       <c r="P314">
         <v>11400</v>
       </c>
-      <c r="Q314" s="1">
-        <v>0</v>
+      <c r="Q314">
+        <v>11400</v>
       </c>
       <c r="R314">
         <v>11400</v>
       </c>
-      <c r="S314">
-        <v>11400</v>
+      <c r="S314" s="1">
+        <v>0</v>
       </c>
       <c r="T314">
         <v>11400</v>
       </c>
-    </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U314">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>403</v>
       </c>
@@ -21193,20 +22138,23 @@
       <c r="P315">
         <v>4100</v>
       </c>
-      <c r="Q315" s="1">
-        <v>0</v>
+      <c r="Q315">
+        <v>4100</v>
       </c>
       <c r="R315">
         <v>4100</v>
       </c>
-      <c r="S315">
-        <v>4100</v>
+      <c r="S315" s="1">
+        <v>0</v>
       </c>
       <c r="T315">
         <v>4100</v>
       </c>
-    </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U315">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>404</v>
       </c>
@@ -21255,20 +22203,23 @@
       <c r="P316">
         <v>1600</v>
       </c>
-      <c r="Q316" s="1">
-        <v>0</v>
+      <c r="Q316">
+        <v>1600</v>
       </c>
       <c r="R316">
         <v>1600</v>
       </c>
-      <c r="S316">
-        <v>1600</v>
+      <c r="S316" s="1">
+        <v>0</v>
       </c>
       <c r="T316">
         <v>1600</v>
       </c>
-    </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U316">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>405</v>
       </c>
@@ -21317,20 +22268,23 @@
       <c r="P317">
         <v>500</v>
       </c>
-      <c r="Q317" s="1">
-        <v>0</v>
+      <c r="Q317">
+        <v>500</v>
       </c>
       <c r="R317">
         <v>500</v>
       </c>
-      <c r="S317">
-        <v>500</v>
+      <c r="S317" s="1">
+        <v>0</v>
       </c>
       <c r="T317">
         <v>500</v>
       </c>
-    </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U317">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>406</v>
       </c>
@@ -21379,20 +22333,23 @@
       <c r="P318">
         <v>1</v>
       </c>
-      <c r="Q318" s="1">
-        <v>0</v>
+      <c r="Q318">
+        <v>1</v>
       </c>
       <c r="R318">
         <v>1</v>
       </c>
-      <c r="S318">
-        <v>1</v>
+      <c r="S318" s="1">
+        <v>0</v>
       </c>
       <c r="T318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>407</v>
       </c>
@@ -21441,20 +22398,23 @@
       <c r="P319">
         <v>1</v>
       </c>
-      <c r="Q319" s="1">
-        <v>0</v>
+      <c r="Q319">
+        <v>1</v>
       </c>
       <c r="R319">
         <v>1</v>
       </c>
-      <c r="S319">
-        <v>1</v>
+      <c r="S319" s="1">
+        <v>0</v>
       </c>
       <c r="T319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>408</v>
       </c>
@@ -21503,20 +22463,23 @@
       <c r="P320">
         <v>1</v>
       </c>
-      <c r="Q320" s="1">
-        <v>0</v>
+      <c r="Q320">
+        <v>1</v>
       </c>
       <c r="R320">
         <v>1</v>
       </c>
-      <c r="S320">
-        <v>1</v>
+      <c r="S320" s="1">
+        <v>0</v>
       </c>
       <c r="T320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>409</v>
       </c>
@@ -21565,20 +22528,23 @@
       <c r="P321">
         <v>1</v>
       </c>
-      <c r="Q321" s="1">
-        <v>0</v>
+      <c r="Q321">
+        <v>1</v>
       </c>
       <c r="R321">
         <v>1</v>
       </c>
-      <c r="S321">
-        <v>1</v>
+      <c r="S321" s="1">
+        <v>0</v>
       </c>
       <c r="T321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>410</v>
       </c>
@@ -21627,20 +22593,23 @@
       <c r="P322">
         <v>1</v>
       </c>
-      <c r="Q322" s="1">
-        <v>0</v>
+      <c r="Q322">
+        <v>1</v>
       </c>
       <c r="R322">
         <v>1</v>
       </c>
-      <c r="S322">
-        <v>1</v>
+      <c r="S322" s="1">
+        <v>0</v>
       </c>
       <c r="T322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>412</v>
       </c>
@@ -21689,20 +22658,23 @@
       <c r="P323">
         <v>1</v>
       </c>
-      <c r="Q323" s="1">
-        <v>0</v>
+      <c r="Q323">
+        <v>1</v>
       </c>
       <c r="R323">
         <v>1</v>
       </c>
-      <c r="S323">
-        <v>1</v>
+      <c r="S323" s="1">
+        <v>0</v>
       </c>
       <c r="T323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>416</v>
       </c>
@@ -21763,8 +22735,11 @@
       <c r="T324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>417</v>
       </c>
@@ -21813,20 +22788,23 @@
       <c r="P325">
         <v>1</v>
       </c>
-      <c r="Q325" s="1">
-        <v>0</v>
+      <c r="Q325">
+        <v>1</v>
       </c>
       <c r="R325">
         <v>1</v>
       </c>
-      <c r="S325">
-        <v>1</v>
+      <c r="S325" s="1">
+        <v>0</v>
       </c>
       <c r="T325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>418</v>
       </c>
@@ -21887,8 +22865,11 @@
       <c r="T326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>419</v>
       </c>
@@ -21949,8 +22930,11 @@
       <c r="T327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>420</v>
       </c>
@@ -21999,20 +22983,23 @@
       <c r="P328">
         <v>1</v>
       </c>
-      <c r="Q328" s="1">
-        <v>0</v>
+      <c r="Q328">
+        <v>1</v>
       </c>
       <c r="R328">
         <v>1</v>
       </c>
-      <c r="S328">
-        <v>1</v>
+      <c r="S328" s="1">
+        <v>0</v>
       </c>
       <c r="T328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>421</v>
       </c>
@@ -22061,20 +23048,23 @@
       <c r="P329">
         <v>1</v>
       </c>
-      <c r="Q329" s="1">
-        <v>0</v>
+      <c r="Q329">
+        <v>1</v>
       </c>
       <c r="R329">
         <v>1</v>
       </c>
-      <c r="S329">
-        <v>1</v>
+      <c r="S329" s="1">
+        <v>0</v>
       </c>
       <c r="T329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>422</v>
       </c>
@@ -22123,20 +23113,23 @@
       <c r="P330">
         <v>1</v>
       </c>
-      <c r="Q330" s="1">
-        <v>0</v>
+      <c r="Q330">
+        <v>1</v>
       </c>
       <c r="R330">
         <v>1</v>
       </c>
-      <c r="S330">
-        <v>1</v>
+      <c r="S330" s="1">
+        <v>0</v>
       </c>
       <c r="T330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>423</v>
       </c>
@@ -22185,20 +23178,23 @@
       <c r="P331">
         <v>1</v>
       </c>
-      <c r="Q331" s="1">
-        <v>0</v>
+      <c r="Q331">
+        <v>1</v>
       </c>
       <c r="R331">
         <v>1</v>
       </c>
-      <c r="S331">
-        <v>1</v>
+      <c r="S331" s="1">
+        <v>0</v>
       </c>
       <c r="T331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>424</v>
       </c>
@@ -22247,20 +23243,23 @@
       <c r="P332">
         <v>1</v>
       </c>
-      <c r="Q332" s="1">
-        <v>0</v>
+      <c r="Q332">
+        <v>1</v>
       </c>
       <c r="R332">
         <v>1</v>
       </c>
-      <c r="S332">
-        <v>1</v>
+      <c r="S332" s="1">
+        <v>0</v>
       </c>
       <c r="T332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>425</v>
       </c>
@@ -22309,20 +23308,23 @@
       <c r="P333">
         <v>1</v>
       </c>
-      <c r="Q333" s="1">
-        <v>0</v>
+      <c r="Q333">
+        <v>1</v>
       </c>
       <c r="R333">
         <v>1</v>
       </c>
-      <c r="S333">
-        <v>1</v>
+      <c r="S333" s="1">
+        <v>0</v>
       </c>
       <c r="T333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>426</v>
       </c>
@@ -22371,20 +23373,23 @@
       <c r="P334">
         <v>1</v>
       </c>
-      <c r="Q334" s="1">
-        <v>0</v>
+      <c r="Q334">
+        <v>1</v>
       </c>
       <c r="R334">
         <v>1</v>
       </c>
-      <c r="S334">
-        <v>1</v>
+      <c r="S334" s="1">
+        <v>0</v>
       </c>
       <c r="T334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>427</v>
       </c>
@@ -22445,8 +23450,11 @@
       <c r="T335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>428</v>
       </c>
@@ -22507,8 +23515,11 @@
       <c r="T336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>429</v>
       </c>
@@ -22557,20 +23568,23 @@
       <c r="P337">
         <v>1</v>
       </c>
-      <c r="Q337" s="1">
-        <v>0</v>
+      <c r="Q337">
+        <v>1</v>
       </c>
       <c r="R337">
         <v>1</v>
       </c>
-      <c r="S337">
-        <v>1</v>
+      <c r="S337" s="1">
+        <v>0</v>
       </c>
       <c r="T337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>430</v>
       </c>
@@ -22619,20 +23633,23 @@
       <c r="P338">
         <v>1</v>
       </c>
-      <c r="Q338" s="1">
-        <v>0</v>
+      <c r="Q338">
+        <v>1</v>
       </c>
       <c r="R338">
         <v>1</v>
       </c>
-      <c r="S338">
-        <v>1</v>
+      <c r="S338" s="1">
+        <v>0</v>
       </c>
       <c r="T338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>431</v>
       </c>
@@ -22681,20 +23698,23 @@
       <c r="P339">
         <v>1</v>
       </c>
-      <c r="Q339" s="1">
-        <v>0</v>
+      <c r="Q339">
+        <v>1</v>
       </c>
       <c r="R339">
         <v>1</v>
       </c>
-      <c r="S339">
-        <v>1</v>
+      <c r="S339" s="1">
+        <v>0</v>
       </c>
       <c r="T339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>432</v>
       </c>
@@ -22743,20 +23763,23 @@
       <c r="P340">
         <v>1</v>
       </c>
-      <c r="Q340" s="1">
-        <v>0</v>
+      <c r="Q340">
+        <v>1</v>
       </c>
       <c r="R340">
         <v>1</v>
       </c>
-      <c r="S340">
-        <v>1</v>
+      <c r="S340" s="1">
+        <v>0</v>
       </c>
       <c r="T340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>433</v>
       </c>
@@ -22805,20 +23828,23 @@
       <c r="P341">
         <v>1</v>
       </c>
-      <c r="Q341" s="1">
-        <v>0</v>
+      <c r="Q341">
+        <v>1</v>
       </c>
       <c r="R341">
         <v>1</v>
       </c>
-      <c r="S341">
-        <v>1</v>
+      <c r="S341" s="1">
+        <v>0</v>
       </c>
       <c r="T341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>434</v>
       </c>
@@ -22879,8 +23905,11 @@
       <c r="T342" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U342" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>435</v>
       </c>
@@ -22941,8 +23970,11 @@
       <c r="T343" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U343" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>436</v>
       </c>
@@ -23003,8 +24035,11 @@
       <c r="T344" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U344" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>438</v>
       </c>
@@ -23065,8 +24100,11 @@
       <c r="T345" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U345" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>439</v>
       </c>
@@ -23127,8 +24165,11 @@
       <c r="T346" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U346" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>440</v>
       </c>
@@ -23157,10 +24198,10 @@
         <v>1</v>
       </c>
       <c r="J347" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K347" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L347" s="1">
         <v>1</v>
@@ -23169,28 +24210,31 @@
         <v>1</v>
       </c>
       <c r="N347" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O347" s="1">
         <v>1</v>
       </c>
       <c r="P347" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q347" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R347" s="1">
         <v>1</v>
       </c>
       <c r="S347" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T347" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U347" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>441</v>
       </c>
@@ -23219,10 +24263,10 @@
         <v>1</v>
       </c>
       <c r="J348" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K348" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L348" s="1">
         <v>1</v>
@@ -23231,28 +24275,31 @@
         <v>1</v>
       </c>
       <c r="N348" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O348" s="1">
         <v>1</v>
       </c>
       <c r="P348" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q348" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R348" s="1">
         <v>1</v>
       </c>
       <c r="S348" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T348" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U348" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>442</v>
       </c>
@@ -23281,10 +24328,10 @@
         <v>1</v>
       </c>
       <c r="J349" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K349" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L349" s="1">
         <v>1</v>
@@ -23293,28 +24340,31 @@
         <v>1</v>
       </c>
       <c r="N349" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O349" s="1">
         <v>1</v>
       </c>
       <c r="P349" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q349" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R349" s="1">
         <v>1</v>
       </c>
       <c r="S349" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T349" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U349" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>446</v>
       </c>
@@ -23375,8 +24425,11 @@
       <c r="T350">
         <v>250</v>
       </c>
-    </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U350">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>447</v>
       </c>
@@ -23437,8 +24490,11 @@
       <c r="T351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>448</v>
       </c>
@@ -23499,8 +24555,11 @@
       <c r="T352">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>451</v>
       </c>
@@ -23561,8 +24620,11 @@
       <c r="T353">
         <v>100</v>
       </c>
-    </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U353">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>452</v>
       </c>
@@ -23623,8 +24685,11 @@
       <c r="T354">
         <v>20</v>
       </c>
-    </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U354">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>453</v>
       </c>
@@ -23685,8 +24750,11 @@
       <c r="T355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>454</v>
       </c>
@@ -23747,8 +24815,11 @@
       <c r="T356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>458</v>
       </c>
@@ -23809,8 +24880,11 @@
       <c r="T357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>459</v>
       </c>
@@ -23871,8 +24945,11 @@
       <c r="T358">
         <v>17581</v>
       </c>
-    </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U358">
+        <v>17581</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>460</v>
       </c>
@@ -23933,8 +25010,11 @@
       <c r="T359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>461</v>
       </c>
@@ -23995,8 +25075,11 @@
       <c r="T360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>462</v>
       </c>
@@ -24057,8 +25140,11 @@
       <c r="T361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>463</v>
       </c>
@@ -24119,8 +25205,11 @@
       <c r="T362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>464</v>
       </c>
@@ -24181,8 +25270,11 @@
       <c r="T363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>465</v>
       </c>
@@ -24243,8 +25335,11 @@
       <c r="T364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>466</v>
       </c>
@@ -24305,8 +25400,11 @@
       <c r="T365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>467</v>
       </c>
@@ -24367,8 +25465,11 @@
       <c r="T366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>468</v>
       </c>
@@ -24429,8 +25530,11 @@
       <c r="T367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>469</v>
       </c>
@@ -24491,8 +25595,11 @@
       <c r="T368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>471</v>
       </c>
@@ -24553,8 +25660,11 @@
       <c r="T369">
         <v>2239</v>
       </c>
-    </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U369">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>472</v>
       </c>
@@ -24615,8 +25725,11 @@
       <c r="T370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>473</v>
       </c>
@@ -24677,8 +25790,11 @@
       <c r="T371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>474</v>
       </c>
@@ -24739,8 +25855,11 @@
       <c r="T372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>475</v>
       </c>
@@ -24801,8 +25920,11 @@
       <c r="T373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>476</v>
       </c>
@@ -24863,8 +25985,11 @@
       <c r="T374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>477</v>
       </c>
@@ -24925,8 +26050,11 @@
       <c r="T375">
         <v>56237</v>
       </c>
-    </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U375">
+        <v>56237</v>
+      </c>
+    </row>
+    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>478</v>
       </c>
@@ -24987,8 +26115,11 @@
       <c r="T376">
         <v>56237</v>
       </c>
-    </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U376">
+        <v>56237</v>
+      </c>
+    </row>
+    <row r="377" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>479</v>
       </c>
@@ -25049,8 +26180,11 @@
       <c r="T377">
         <v>59051</v>
       </c>
-    </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U377">
+        <v>59051</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>480</v>
       </c>
@@ -25111,8 +26245,11 @@
       <c r="T378">
         <v>563</v>
       </c>
-    </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U378">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="379" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>482</v>
       </c>
@@ -25173,8 +26310,11 @@
       <c r="T379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>483</v>
       </c>
@@ -25235,8 +26375,11 @@
       <c r="T380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>484</v>
       </c>
@@ -25297,8 +26440,11 @@
       <c r="T381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>485</v>
       </c>
@@ -25359,8 +26505,11 @@
       <c r="T382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>486</v>
       </c>
@@ -25421,8 +26570,11 @@
       <c r="T383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>487</v>
       </c>
@@ -25483,8 +26635,11 @@
       <c r="T384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>488</v>
       </c>
@@ -25545,8 +26700,11 @@
       <c r="T385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>489</v>
       </c>
@@ -25607,8 +26765,11 @@
       <c r="T386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>490</v>
       </c>
@@ -25669,8 +26830,11 @@
       <c r="T387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>491</v>
       </c>
@@ -25731,8 +26895,11 @@
       <c r="T388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>492</v>
       </c>
@@ -25793,8 +26960,11 @@
       <c r="T389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>494</v>
       </c>
@@ -25855,8 +27025,11 @@
       <c r="T390">
         <v>3</v>
       </c>
-    </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>500</v>
       </c>
@@ -25917,8 +27090,11 @@
       <c r="T391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>501</v>
       </c>
@@ -25979,8 +27155,11 @@
       <c r="T392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>503</v>
       </c>
@@ -26041,8 +27220,11 @@
       <c r="T393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>504</v>
       </c>
@@ -26103,8 +27285,11 @@
       <c r="T394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>505</v>
       </c>
@@ -26165,8 +27350,11 @@
       <c r="T395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>506</v>
       </c>
@@ -26225,6 +27413,9 @@
         <v>0</v>
       </c>
       <c r="T396">
+        <v>0</v>
+      </c>
+      <c r="U396">
         <v>0</v>
       </c>
     </row>
